--- a/reports/repasse_fes.xlsx
+++ b/reports/repasse_fes.xlsx
@@ -466,7 +466,7 @@
         <v>1189731673.32</v>
       </c>
       <c r="G2">
-        <v>1167877665.93</v>
+        <v>1169734603.76</v>
       </c>
       <c r="H2">
         <v>7990805100</v>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="J4">
-        <v>11886761.95627206</v>
+        <v>11986761.95627206</v>
       </c>
       <c r="K4">
         <v>20111231.25</v>
@@ -637,13 +637,13 @@
         <v>37176172.19</v>
       </c>
       <c r="E5">
-        <v>37176172.19</v>
+        <v>12385707.13</v>
       </c>
       <c r="F5">
-        <v>12224740.56</v>
+        <v>6314403.09</v>
       </c>
       <c r="G5">
-        <v>9341437.76</v>
+        <v>4341437.76</v>
       </c>
       <c r="H5">
         <v>7990805100</v>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="J5">
-        <v>51046433.18999996</v>
+        <v>37176172.18999993</v>
       </c>
       <c r="K5">
         <v>9341437.76</v>
@@ -671,7 +671,7 @@
         <v>37176172.19</v>
       </c>
       <c r="O5">
-        <v>24948176.19</v>
+        <v>9342176.19</v>
       </c>
       <c r="P5">
         <v>9341437.860000003</v>
@@ -702,7 +702,7 @@
         <v>85245423.20999999</v>
       </c>
       <c r="G6">
-        <v>82626101.23</v>
+        <v>82632501.23</v>
       </c>
       <c r="H6">
         <v>7990805100</v>
@@ -761,7 +761,7 @@
         <v>393178499.06</v>
       </c>
       <c r="G7">
-        <v>333885740.4</v>
+        <v>342342408.91</v>
       </c>
       <c r="H7">
         <v>7990805100</v>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="J7">
-        <v>390557590.6737492</v>
+        <v>396545580.0037492</v>
       </c>
       <c r="K7">
         <v>229048236</v>
@@ -820,7 +820,7 @@
         <v>236216405.35</v>
       </c>
       <c r="G8">
-        <v>232956359.52</v>
+        <v>233039239.82</v>
       </c>
       <c r="H8">
         <v>7990805100</v>
@@ -848,7 +848,7 @@
         <v>256013262.6327776</v>
       </c>
       <c r="O8">
-        <v>257849148</v>
+        <v>245610861</v>
       </c>
       <c r="P8">
         <v>245610860.54</v>
@@ -879,7 +879,7 @@
         <v>11433638.63</v>
       </c>
       <c r="G9">
-        <v>11251650.39</v>
+        <v>11240850.39</v>
       </c>
       <c r="H9">
         <v>7990805100</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="J9">
-        <v>23268373.36723115</v>
+        <v>17280384.03723116</v>
       </c>
       <c r="K9">
         <v>7090640.64</v>
@@ -907,10 +907,10 @@
         <v>17280384.03723115</v>
       </c>
       <c r="O9">
-        <v>11633133.6</v>
+        <v>11283755.47</v>
       </c>
       <c r="P9">
-        <v>8372808.210000001</v>
+        <v>11251650.39</v>
       </c>
       <c r="Q9">
         <v>7090640.64</v>
@@ -963,7 +963,7 @@
         <v>3334000</v>
       </c>
       <c r="O10">
-        <v>3334000</v>
+        <v>2917300</v>
       </c>
       <c r="P10">
         <v>2917000</v>

--- a/reports/repasse_fes.xlsx
+++ b/reports/repasse_fes.xlsx
@@ -457,16 +457,16 @@
         </is>
       </c>
       <c r="D2">
-        <v>1254931164.806994</v>
+        <v>1258942429.43</v>
       </c>
       <c r="E2">
         <v>1257666177</v>
       </c>
       <c r="F2">
-        <v>1189731673.32</v>
+        <v>1254480160.88</v>
       </c>
       <c r="G2">
-        <v>1169734603.76</v>
+        <v>1241028002.69</v>
       </c>
       <c r="H2">
         <v>7990805100</v>
@@ -477,10 +477,10 @@
         </is>
       </c>
       <c r="J2">
-        <v>1254931164.806996</v>
+        <v>1254917176.246996</v>
       </c>
       <c r="K2">
-        <v>909244075.5</v>
+        <v>1240825434</v>
       </c>
       <c r="L2">
         <v>4245</v>
@@ -491,7 +491,7 @@
         </is>
       </c>
       <c r="N2">
-        <v>1254931164.806994</v>
+        <v>1258942429.43</v>
       </c>
       <c r="O2">
         <v>1240825434</v>
@@ -516,16 +516,16 @@
         </is>
       </c>
       <c r="D3">
-        <v>138270860.2073417</v>
+        <v>136417603.7</v>
       </c>
       <c r="E3">
         <v>145259388.38</v>
       </c>
       <c r="F3">
-        <v>128558673.07</v>
+        <v>136318387.02</v>
       </c>
       <c r="G3">
-        <v>119153759.04</v>
+        <v>127721254.21</v>
       </c>
       <c r="H3">
         <v>7990805100</v>
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="N3">
-        <v>138270860.2073417</v>
+        <v>136417603.7</v>
       </c>
       <c r="O3">
         <v>122541835</v>
@@ -575,16 +575,16 @@
         </is>
       </c>
       <c r="D4">
-        <v>11986761.95627206</v>
+        <v>13048636.54</v>
       </c>
       <c r="E4">
-        <v>13388211</v>
+        <v>13478211</v>
       </c>
       <c r="F4">
-        <v>10942477.21</v>
+        <v>11671193.44</v>
       </c>
       <c r="G4">
-        <v>9985014.49</v>
+        <v>11105607.63</v>
       </c>
       <c r="H4">
         <v>7990805100</v>
@@ -595,10 +595,10 @@
         </is>
       </c>
       <c r="J4">
-        <v>11986761.95627206</v>
+        <v>12056761.95627206</v>
       </c>
       <c r="K4">
-        <v>20111231.25</v>
+        <v>26814975</v>
       </c>
       <c r="L4">
         <v>4697</v>
@@ -609,7 +609,7 @@
         </is>
       </c>
       <c r="N4">
-        <v>11986761.95627206</v>
+        <v>13048636.54</v>
       </c>
       <c r="O4">
         <v>26814975</v>
@@ -634,7 +634,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>37176172.19</v>
+        <v>12385707.13</v>
       </c>
       <c r="E5">
         <v>12385707.13</v>
@@ -654,7 +654,7 @@
         </is>
       </c>
       <c r="J5">
-        <v>37176172.18999993</v>
+        <v>12385707.12999993</v>
       </c>
       <c r="K5">
         <v>9341437.76</v>
@@ -668,7 +668,7 @@
         </is>
       </c>
       <c r="N5">
-        <v>37176172.19</v>
+        <v>12385707.13</v>
       </c>
       <c r="O5">
         <v>9342176.19</v>
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="D6">
-        <v>89084227.08944777</v>
+        <v>89274116.10999999</v>
       </c>
       <c r="E6">
-        <v>88717479</v>
+        <v>89208831</v>
       </c>
       <c r="F6">
-        <v>85245423.20999999</v>
+        <v>89046048.03</v>
       </c>
       <c r="G6">
-        <v>82632501.23</v>
+        <v>87849437.06999999</v>
       </c>
       <c r="H6">
         <v>7990805100</v>
@@ -716,7 +716,7 @@
         <v>2.561137080192566e-009</v>
       </c>
       <c r="K6">
-        <v>63424581.7</v>
+        <v>-3.725290298461914e-009</v>
       </c>
       <c r="L6">
         <v>4277</v>
@@ -727,16 +727,16 @@
         </is>
       </c>
       <c r="N6">
-        <v>89084227.08944777</v>
+        <v>89274116.10999999</v>
       </c>
       <c r="O6">
         <v>85558026</v>
       </c>
       <c r="P6">
-        <v>85558026</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>85558026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -752,16 +752,16 @@
         </is>
       </c>
       <c r="D7">
-        <v>396545580.0037498</v>
+        <v>398163439.84</v>
       </c>
       <c r="E7">
-        <v>397094856.28</v>
+        <v>397116199.28</v>
       </c>
       <c r="F7">
-        <v>393178499.06</v>
+        <v>353922522.18</v>
       </c>
       <c r="G7">
-        <v>342342408.91</v>
+        <v>346935366.47</v>
       </c>
       <c r="H7">
         <v>7990805100</v>
@@ -772,10 +772,10 @@
         </is>
       </c>
       <c r="J7">
-        <v>396545580.0037492</v>
+        <v>396543331.0537492</v>
       </c>
       <c r="K7">
-        <v>229048236</v>
+        <v>391385637.33</v>
       </c>
       <c r="L7">
         <v>4283</v>
@@ -786,7 +786,7 @@
         </is>
       </c>
       <c r="N7">
-        <v>396545580.0037498</v>
+        <v>398163439.84</v>
       </c>
       <c r="O7">
         <v>391385637.33</v>
@@ -811,16 +811,16 @@
         </is>
       </c>
       <c r="D8">
-        <v>256013262.6327776</v>
+        <v>257497493.91</v>
       </c>
       <c r="E8">
         <v>257839220.54</v>
       </c>
       <c r="F8">
-        <v>236216405.35</v>
+        <v>244217487.37</v>
       </c>
       <c r="G8">
-        <v>233039239.82</v>
+        <v>241514967.84</v>
       </c>
       <c r="H8">
         <v>7990805100</v>
@@ -845,7 +845,7 @@
         </is>
       </c>
       <c r="N8">
-        <v>256013262.6327776</v>
+        <v>257497493.91</v>
       </c>
       <c r="O8">
         <v>245610861</v>
@@ -870,16 +870,16 @@
         </is>
       </c>
       <c r="D9">
-        <v>17280384.03723115</v>
+        <v>17436283.81</v>
       </c>
       <c r="E9">
         <v>17415969.6</v>
       </c>
       <c r="F9">
-        <v>11433638.63</v>
+        <v>12036650.01</v>
       </c>
       <c r="G9">
-        <v>11240850.39</v>
+        <v>11843861.77</v>
       </c>
       <c r="H9">
         <v>7990805100</v>
@@ -904,7 +904,7 @@
         </is>
       </c>
       <c r="N9">
-        <v>17280384.03723115</v>
+        <v>17436283.81</v>
       </c>
       <c r="O9">
         <v>11283755.47</v>
@@ -937,6 +937,9 @@
       <c r="F10">
         <v>2917300</v>
       </c>
+      <c r="G10">
+        <v>2783302.79</v>
+      </c>
       <c r="H10">
         <v>7990805100</v>
       </c>
@@ -949,7 +952,7 @@
         <v>3333999.999999999</v>
       </c>
       <c r="K10">
-        <v>2222666.66</v>
+        <v>2917000</v>
       </c>
       <c r="L10">
         <v>4432</v>

--- a/reports/repasse_fes.xlsx
+++ b/reports/repasse_fes.xlsx
@@ -466,7 +466,7 @@
         <v>1254480160.88</v>
       </c>
       <c r="G2">
-        <v>1241028002.69</v>
+        <v>1241054363.69</v>
       </c>
       <c r="H2">
         <v>7990805100</v>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="J2">
-        <v>1254917176.246996</v>
+        <v>1258942429.430002</v>
       </c>
       <c r="K2">
         <v>1240825434</v>
@@ -525,7 +525,7 @@
         <v>136318387.02</v>
       </c>
       <c r="G3">
-        <v>127721254.21</v>
+        <v>127698098.5</v>
       </c>
       <c r="H3">
         <v>7990805100</v>
@@ -536,7 +536,7 @@
         </is>
       </c>
       <c r="J3">
-        <v>138270860.2073419</v>
+        <v>136417603.7000002</v>
       </c>
       <c r="K3">
         <v>91906376.24</v>
@@ -595,7 +595,7 @@
         </is>
       </c>
       <c r="J4">
-        <v>12056761.95627206</v>
+        <v>13048636.53999999</v>
       </c>
       <c r="K4">
         <v>26814975</v>
@@ -702,7 +702,7 @@
         <v>89046048.03</v>
       </c>
       <c r="G6">
-        <v>87849437.06999999</v>
+        <v>88489905.97</v>
       </c>
       <c r="H6">
         <v>7990805100</v>
@@ -761,7 +761,7 @@
         <v>353922522.18</v>
       </c>
       <c r="G7">
-        <v>346935366.47</v>
+        <v>346965116.59</v>
       </c>
       <c r="H7">
         <v>7990805100</v>
@@ -772,7 +772,7 @@
         </is>
       </c>
       <c r="J7">
-        <v>396543331.0537492</v>
+        <v>398163439.8399994</v>
       </c>
       <c r="K7">
         <v>391385637.33</v>
@@ -817,10 +817,10 @@
         <v>257839220.54</v>
       </c>
       <c r="F8">
-        <v>244217487.37</v>
+        <v>242886468.36</v>
       </c>
       <c r="G8">
-        <v>241514967.84</v>
+        <v>241535657.56</v>
       </c>
       <c r="H8">
         <v>7990805100</v>
@@ -831,7 +831,7 @@
         </is>
       </c>
       <c r="J8">
-        <v>256013262.6327779</v>
+        <v>257497493.9100002</v>
       </c>
       <c r="K8">
         <v>178161860.99</v>
@@ -879,7 +879,7 @@
         <v>12036650.01</v>
       </c>
       <c r="G9">
-        <v>11843861.77</v>
+        <v>11833172.42</v>
       </c>
       <c r="H9">
         <v>7990805100</v>
@@ -890,7 +890,7 @@
         </is>
       </c>
       <c r="J9">
-        <v>17280384.03723116</v>
+        <v>17436283.81000001</v>
       </c>
       <c r="K9">
         <v>7090640.64</v>
@@ -969,10 +969,10 @@
         <v>2917300</v>
       </c>
       <c r="P10">
-        <v>2917000</v>
+        <v>2917300</v>
       </c>
       <c r="Q10">
-        <v>2917000</v>
+        <v>2917300</v>
       </c>
     </row>
   </sheetData>

--- a/reports/repasse_fes.xlsx
+++ b/reports/repasse_fes.xlsx
@@ -460,13 +460,13 @@
         <v>1258942429.43</v>
       </c>
       <c r="E2">
-        <v>1257666177</v>
+        <v>1259966447</v>
       </c>
       <c r="F2">
-        <v>1254480160.88</v>
+        <v>1251705752.77</v>
       </c>
       <c r="G2">
-        <v>1241054363.69</v>
+        <v>1250405684.67</v>
       </c>
       <c r="H2">
         <v>7990805100</v>
@@ -494,10 +494,10 @@
         <v>1258942429.43</v>
       </c>
       <c r="O2">
-        <v>1240825434</v>
+        <v>1253063721.46</v>
       </c>
       <c r="P2">
-        <v>1240825434</v>
+        <v>1253063721.46</v>
       </c>
       <c r="Q2">
         <v>1240825434</v>
@@ -519,13 +519,13 @@
         <v>136417603.7</v>
       </c>
       <c r="E3">
-        <v>145259388.38</v>
+        <v>139884594.38</v>
       </c>
       <c r="F3">
-        <v>136318387.02</v>
+        <v>135676732.65</v>
       </c>
       <c r="G3">
-        <v>127698098.5</v>
+        <v>134335565.37</v>
       </c>
       <c r="H3">
         <v>7990805100</v>
@@ -553,7 +553,7 @@
         <v>136417603.7</v>
       </c>
       <c r="O3">
-        <v>122541835</v>
+        <v>132741835</v>
       </c>
       <c r="P3">
         <v>122541835</v>
@@ -581,10 +581,10 @@
         <v>13478211</v>
       </c>
       <c r="F4">
-        <v>11671193.44</v>
+        <v>12879984.11</v>
       </c>
       <c r="G4">
-        <v>11105607.63</v>
+        <v>11227561.51</v>
       </c>
       <c r="H4">
         <v>7990805100</v>
@@ -637,10 +637,10 @@
         <v>12385707.13</v>
       </c>
       <c r="E5">
-        <v>12385707.13</v>
+        <v>7385707.129999999</v>
       </c>
       <c r="F5">
-        <v>6314403.09</v>
+        <v>4714403.09</v>
       </c>
       <c r="G5">
         <v>4341437.76</v>
@@ -657,7 +657,7 @@
         <v>12385707.12999993</v>
       </c>
       <c r="K5">
-        <v>9341437.76</v>
+        <v>1.862645149230957e-009</v>
       </c>
       <c r="L5">
         <v>4637</v>
@@ -696,13 +696,13 @@
         <v>89274116.10999999</v>
       </c>
       <c r="E6">
-        <v>89208831</v>
+        <v>89436899</v>
       </c>
       <c r="F6">
-        <v>89046048.03</v>
+        <v>89274115.61</v>
       </c>
       <c r="G6">
-        <v>88489905.97</v>
+        <v>89206993.31</v>
       </c>
       <c r="H6">
         <v>7990805100</v>
@@ -730,7 +730,7 @@
         <v>89274116.10999999</v>
       </c>
       <c r="O6">
-        <v>85558026</v>
+        <v>0</v>
       </c>
       <c r="P6">
         <v>0</v>
@@ -755,13 +755,13 @@
         <v>398163439.84</v>
       </c>
       <c r="E7">
-        <v>397116199.28</v>
+        <v>398183440.28</v>
       </c>
       <c r="F7">
-        <v>353922522.18</v>
+        <v>394517627.99</v>
       </c>
       <c r="G7">
-        <v>346965116.59</v>
+        <v>349080701.49</v>
       </c>
       <c r="H7">
         <v>7990805100</v>
@@ -814,13 +814,13 @@
         <v>257497493.91</v>
       </c>
       <c r="E8">
-        <v>257839220.54</v>
+        <v>246642653.08</v>
       </c>
       <c r="F8">
-        <v>242886468.36</v>
+        <v>243721433.44</v>
       </c>
       <c r="G8">
-        <v>241535657.56</v>
+        <v>242640807.93</v>
       </c>
       <c r="H8">
         <v>7990805100</v>
@@ -873,13 +873,13 @@
         <v>17436283.81</v>
       </c>
       <c r="E9">
-        <v>17415969.6</v>
+        <v>12246442.6</v>
       </c>
       <c r="F9">
-        <v>12036650.01</v>
+        <v>12067121.22</v>
       </c>
       <c r="G9">
-        <v>11833172.42</v>
+        <v>11863643.63</v>
       </c>
       <c r="H9">
         <v>7990805100</v>
@@ -893,7 +893,7 @@
         <v>17436283.81000001</v>
       </c>
       <c r="K9">
-        <v>7090640.64</v>
+        <v>11118132.76</v>
       </c>
       <c r="L9">
         <v>4304</v>
@@ -913,7 +913,7 @@
         <v>11251650.39</v>
       </c>
       <c r="Q9">
-        <v>7090640.64</v>
+        <v>11118132.76</v>
       </c>
     </row>
     <row r="10">
@@ -938,7 +938,7 @@
         <v>2917300</v>
       </c>
       <c r="G10">
-        <v>2783302.79</v>
+        <v>2852691.27</v>
       </c>
       <c r="H10">
         <v>7990805100</v>
@@ -952,7 +952,7 @@
         <v>3333999.999999999</v>
       </c>
       <c r="K10">
-        <v>2917000</v>
+        <v>2917300</v>
       </c>
       <c r="L10">
         <v>4432</v>
